--- a/data/pca/factorExposure/factorExposure_2015-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0199070363234333</v>
+        <v>0.0100852198300315</v>
       </c>
       <c r="C2">
-        <v>-0.01913055822863773</v>
+        <v>-0.05176119681652749</v>
       </c>
       <c r="D2">
-        <v>-0.1054470073318443</v>
+        <v>-0.1309456691710875</v>
       </c>
       <c r="E2">
-        <v>0.008215590780961301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02183437673001532</v>
+      </c>
+      <c r="F2">
+        <v>-0.02925154846542213</v>
+      </c>
+      <c r="G2">
+        <v>0.1288056000903855</v>
+      </c>
+      <c r="H2">
+        <v>-0.04100317640418665</v>
+      </c>
+      <c r="I2">
+        <v>0.1470473967588171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0004702269447170501</v>
+        <v>-0.000459670947868124</v>
       </c>
       <c r="C3">
-        <v>-0.0007153624499084359</v>
+        <v>-0.0002724052079156382</v>
       </c>
       <c r="D3">
-        <v>0.0005808014996159944</v>
+        <v>-0.001857601942834586</v>
       </c>
       <c r="E3">
-        <v>-0.0007146355297098699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.004291057248660474</v>
+      </c>
+      <c r="F3">
+        <v>0.002276595051289618</v>
+      </c>
+      <c r="G3">
+        <v>0.003360287434243631</v>
+      </c>
+      <c r="H3">
+        <v>0.01125419310985057</v>
+      </c>
+      <c r="I3">
+        <v>-0.000417941443106924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04385737881585712</v>
+        <v>0.01939110265013154</v>
       </c>
       <c r="C4">
-        <v>-0.07219652998209461</v>
+        <v>-0.1043128075187589</v>
       </c>
       <c r="D4">
-        <v>-0.1312072568314605</v>
+        <v>-0.1349506405331274</v>
       </c>
       <c r="E4">
-        <v>0.08293255246164327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.006979754408698494</v>
+      </c>
+      <c r="F4">
+        <v>-0.09060009001988908</v>
+      </c>
+      <c r="G4">
+        <v>0.00851397331286627</v>
+      </c>
+      <c r="H4">
+        <v>-0.05139113522240171</v>
+      </c>
+      <c r="I4">
+        <v>-0.06247827001164682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02098967432598142</v>
+        <v>0.02705914840984015</v>
       </c>
       <c r="C6">
-        <v>-0.01229512566514287</v>
+        <v>-0.03321781828524064</v>
       </c>
       <c r="D6">
-        <v>-0.1369363199125787</v>
+        <v>-0.1234882560362616</v>
       </c>
       <c r="E6">
-        <v>0.03654167658385897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05632739413019398</v>
+      </c>
+      <c r="F6">
+        <v>-0.04681183989765257</v>
+      </c>
+      <c r="G6">
+        <v>0.006829625711043079</v>
+      </c>
+      <c r="H6">
+        <v>-0.05130997763597132</v>
+      </c>
+      <c r="I6">
+        <v>-0.03110533903241895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002263482983250881</v>
+        <v>0.009141419067802754</v>
       </c>
       <c r="C7">
-        <v>-0.02349265120809588</v>
+        <v>-0.03516936089425694</v>
       </c>
       <c r="D7">
-        <v>-0.1130589668716845</v>
+        <v>-0.09875186893445975</v>
       </c>
       <c r="E7">
-        <v>0.003155813269416081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05191741518851103</v>
+      </c>
+      <c r="F7">
+        <v>-0.01029204750019762</v>
+      </c>
+      <c r="G7">
+        <v>0.008444016104299632</v>
+      </c>
+      <c r="H7">
+        <v>-0.07966691906627507</v>
+      </c>
+      <c r="I7">
+        <v>-0.003202929571903712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.006562448320234684</v>
+        <v>-0.007996786697907696</v>
       </c>
       <c r="C8">
-        <v>-0.02454776480887338</v>
+        <v>-0.03242282168097712</v>
       </c>
       <c r="D8">
-        <v>-0.08133203668616569</v>
+        <v>-0.07957777822978217</v>
       </c>
       <c r="E8">
-        <v>0.02625028807160426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03636083662052468</v>
+      </c>
+      <c r="F8">
+        <v>-0.05316254913895525</v>
+      </c>
+      <c r="G8">
+        <v>0.06180361580425404</v>
+      </c>
+      <c r="H8">
+        <v>0.0006696206841496344</v>
+      </c>
+      <c r="I8">
+        <v>-0.01220790364998532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03595961201523454</v>
+        <v>0.01344724290606998</v>
       </c>
       <c r="C9">
-        <v>-0.06092962104376696</v>
+        <v>-0.08604274032595759</v>
       </c>
       <c r="D9">
-        <v>-0.1306318022191257</v>
+        <v>-0.1164209214912712</v>
       </c>
       <c r="E9">
-        <v>0.0666741679763511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.00900088349595232</v>
+      </c>
+      <c r="F9">
+        <v>-0.06013931286784119</v>
+      </c>
+      <c r="G9">
+        <v>-0.005706788233237411</v>
+      </c>
+      <c r="H9">
+        <v>-0.06650856613404714</v>
+      </c>
+      <c r="I9">
+        <v>-0.03688499120551362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.170159868102523</v>
+        <v>0.2384012973225894</v>
       </c>
       <c r="C10">
-        <v>0.1716236980185833</v>
+        <v>0.09691844108235118</v>
       </c>
       <c r="D10">
-        <v>-0.004991552748020209</v>
+        <v>0.004662778789751435</v>
       </c>
       <c r="E10">
-        <v>0.04599202863679264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01154103213439473</v>
+      </c>
+      <c r="F10">
+        <v>-0.04408795542154691</v>
+      </c>
+      <c r="G10">
+        <v>-0.002901949071896854</v>
+      </c>
+      <c r="H10">
+        <v>0.05763017843718087</v>
+      </c>
+      <c r="I10">
+        <v>0.003346601198915874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01868124766806707</v>
+        <v>0.01006693253934608</v>
       </c>
       <c r="C11">
-        <v>-0.04060228900166879</v>
+        <v>-0.05353172211483402</v>
       </c>
       <c r="D11">
-        <v>-0.04968302939100205</v>
+        <v>-0.04400541832737734</v>
       </c>
       <c r="E11">
-        <v>-0.01611745045150651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01986025838542152</v>
+      </c>
+      <c r="F11">
+        <v>0.01224794993522444</v>
+      </c>
+      <c r="G11">
+        <v>0.002105030534868242</v>
+      </c>
+      <c r="H11">
+        <v>-0.04763490178143497</v>
+      </c>
+      <c r="I11">
+        <v>-0.05673702268594517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01963881136129379</v>
+        <v>0.01034977434542956</v>
       </c>
       <c r="C12">
-        <v>-0.03961595301266706</v>
+        <v>-0.04837972418782916</v>
       </c>
       <c r="D12">
-        <v>-0.06133818306971762</v>
+        <v>-0.04852724898229203</v>
       </c>
       <c r="E12">
-        <v>-0.005182249920033109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01510204329290472</v>
+      </c>
+      <c r="F12">
+        <v>0.01566319929598735</v>
+      </c>
+      <c r="G12">
+        <v>-0.0122647960789322</v>
+      </c>
+      <c r="H12">
+        <v>-0.07246330860883554</v>
+      </c>
+      <c r="I12">
+        <v>-0.02214804240594958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.001243906918333954</v>
+        <v>-0.00355816190032364</v>
       </c>
       <c r="C13">
-        <v>-0.02226251558238536</v>
+        <v>-0.04381155863438176</v>
       </c>
       <c r="D13">
-        <v>-0.1436844566050262</v>
+        <v>-0.149946951822722</v>
       </c>
       <c r="E13">
-        <v>0.0357973547106357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0373590328160417</v>
+      </c>
+      <c r="F13">
+        <v>-0.03549017809633291</v>
+      </c>
+      <c r="G13">
+        <v>0.03230010015786016</v>
+      </c>
+      <c r="H13">
+        <v>-0.06066863746306154</v>
+      </c>
+      <c r="I13">
+        <v>0.07851185558147442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005931749327052508</v>
+        <v>0.0007334505885606469</v>
       </c>
       <c r="C14">
-        <v>-0.01659882847207226</v>
+        <v>-0.02847292132790727</v>
       </c>
       <c r="D14">
-        <v>-0.09867536587754008</v>
+        <v>-0.102616864008044</v>
       </c>
       <c r="E14">
-        <v>0.01074693333795215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.04873794982608894</v>
+      </c>
+      <c r="F14">
+        <v>-0.03720582666186367</v>
+      </c>
+      <c r="G14">
+        <v>0.0386381577294692</v>
+      </c>
+      <c r="H14">
+        <v>-0.1244061791493124</v>
+      </c>
+      <c r="I14">
+        <v>0.0001038935793895059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002847473225899348</v>
+        <v>-0.00149542540830371</v>
       </c>
       <c r="C15">
-        <v>-0.01049479085874309</v>
+        <v>-0.0245467963597516</v>
       </c>
       <c r="D15">
-        <v>-0.03027210390820409</v>
+        <v>-0.05955448034072072</v>
       </c>
       <c r="E15">
-        <v>-0.003774305894196235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.008501256794153566</v>
+      </c>
+      <c r="F15">
+        <v>-0.007122757192698563</v>
+      </c>
+      <c r="G15">
+        <v>0.02380191612370207</v>
+      </c>
+      <c r="H15">
+        <v>-0.03107994966233467</v>
+      </c>
+      <c r="I15">
+        <v>-0.02002584506293544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01845595676590256</v>
+        <v>0.01033128691282351</v>
       </c>
       <c r="C16">
-        <v>-0.03660703953686983</v>
+        <v>-0.04772911922763017</v>
       </c>
       <c r="D16">
-        <v>-0.05478678350104235</v>
+        <v>-0.04475147566259005</v>
       </c>
       <c r="E16">
-        <v>-0.007814011557363693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02101729579406488</v>
+      </c>
+      <c r="F16">
+        <v>0.008290739752359402</v>
+      </c>
+      <c r="G16">
+        <v>-0.008682896239845653</v>
+      </c>
+      <c r="H16">
+        <v>-0.05231921079000143</v>
+      </c>
+      <c r="I16">
+        <v>-0.04742079023158513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004185936343414977</v>
+        <v>0.0003307892646453842</v>
       </c>
       <c r="C19">
-        <v>-0.01787667209135052</v>
+        <v>-0.01704860912618232</v>
       </c>
       <c r="D19">
-        <v>-0.1012882717352103</v>
+        <v>-0.06431188053084556</v>
       </c>
       <c r="E19">
-        <v>0.04257617353086825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01184304643226525</v>
+      </c>
+      <c r="F19">
+        <v>-0.01503478763192304</v>
+      </c>
+      <c r="G19">
+        <v>0.02171077508449298</v>
+      </c>
+      <c r="H19">
+        <v>-0.05760654119547662</v>
+      </c>
+      <c r="I19">
+        <v>0.03218938644272306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.001886205128429794</v>
+        <v>0.005360808123684745</v>
       </c>
       <c r="C20">
-        <v>-0.02343034049106721</v>
+        <v>-0.03840642578212618</v>
       </c>
       <c r="D20">
-        <v>-0.0855453714249845</v>
+        <v>-0.09368159696774897</v>
       </c>
       <c r="E20">
-        <v>0.0345366122468176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02118898179628222</v>
+      </c>
+      <c r="F20">
+        <v>-0.02951124401954229</v>
+      </c>
+      <c r="G20">
+        <v>0.004273045667540998</v>
+      </c>
+      <c r="H20">
+        <v>-0.058372516739563</v>
+      </c>
+      <c r="I20">
+        <v>-0.04931761839868393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005395617673059064</v>
+        <v>0.004614190223490413</v>
       </c>
       <c r="C21">
-        <v>-0.02826898785555998</v>
+        <v>-0.04245424797666135</v>
       </c>
       <c r="D21">
-        <v>-0.1623923376160248</v>
+        <v>-0.13039051914185</v>
       </c>
       <c r="E21">
-        <v>0.07374456670183983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02917861060442544</v>
+      </c>
+      <c r="F21">
+        <v>-0.09655335349939419</v>
+      </c>
+      <c r="G21">
+        <v>0.05563664882115917</v>
+      </c>
+      <c r="H21">
+        <v>-0.1872496378372945</v>
+      </c>
+      <c r="I21">
+        <v>0.1304635664116806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002796857585589165</v>
+        <v>-0.007624991554076006</v>
       </c>
       <c r="C22">
-        <v>-0.0631836363457612</v>
+        <v>-0.08584400874848454</v>
       </c>
       <c r="D22">
-        <v>-0.2424185850360762</v>
+        <v>-0.266043000865363</v>
       </c>
       <c r="E22">
-        <v>-0.01943145144868339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05086239874511903</v>
+      </c>
+      <c r="F22">
+        <v>-0.02216942188250474</v>
+      </c>
+      <c r="G22">
+        <v>0.2765808356926583</v>
+      </c>
+      <c r="H22">
+        <v>0.4525190338225176</v>
+      </c>
+      <c r="I22">
+        <v>-0.07842949534989946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00252819965290981</v>
+        <v>-0.007202028198081178</v>
       </c>
       <c r="C23">
-        <v>-0.0636877156478443</v>
+        <v>-0.08699364142676659</v>
       </c>
       <c r="D23">
-        <v>-0.2419394218651877</v>
+        <v>-0.2669631367070009</v>
       </c>
       <c r="E23">
-        <v>-0.01929241496858771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04783248770869792</v>
+      </c>
+      <c r="F23">
+        <v>-0.02244627643412831</v>
+      </c>
+      <c r="G23">
+        <v>0.276589474025027</v>
+      </c>
+      <c r="H23">
+        <v>0.4519480476443352</v>
+      </c>
+      <c r="I23">
+        <v>-0.07763063920032318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0233684260473437</v>
+        <v>0.009822030640456668</v>
       </c>
       <c r="C24">
-        <v>-0.05555236209864196</v>
+        <v>-0.06442737848923885</v>
       </c>
       <c r="D24">
-        <v>-0.0686280847357494</v>
+        <v>-0.05178987895847217</v>
       </c>
       <c r="E24">
-        <v>-0.003452697552189598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02882260819412099</v>
+      </c>
+      <c r="F24">
+        <v>0.003806276964856393</v>
+      </c>
+      <c r="G24">
+        <v>0.00450401714346371</v>
+      </c>
+      <c r="H24">
+        <v>-0.07517891935215767</v>
+      </c>
+      <c r="I24">
+        <v>-0.04078067433726928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02533588235182961</v>
+        <v>0.01414384076249218</v>
       </c>
       <c r="C25">
-        <v>-0.04718014905115866</v>
+        <v>-0.05925202055186712</v>
       </c>
       <c r="D25">
-        <v>-0.06003974210725507</v>
+        <v>-0.0496333094140301</v>
       </c>
       <c r="E25">
-        <v>0.0003666255595352072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01368291179783034</v>
+      </c>
+      <c r="F25">
+        <v>0.005697314023633136</v>
+      </c>
+      <c r="G25">
+        <v>-0.00439131404114408</v>
+      </c>
+      <c r="H25">
+        <v>-0.04246792460179196</v>
+      </c>
+      <c r="I25">
+        <v>-0.03723657785159538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006915429713093986</v>
+        <v>0.01386316630210771</v>
       </c>
       <c r="C26">
-        <v>-0.0157444657461659</v>
+        <v>-0.02517602879984994</v>
       </c>
       <c r="D26">
-        <v>-0.08052471292864175</v>
+        <v>-0.06486735889461123</v>
       </c>
       <c r="E26">
-        <v>0.01848247989204685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04046603762526142</v>
+      </c>
+      <c r="F26">
+        <v>-0.04343566335603605</v>
+      </c>
+      <c r="G26">
+        <v>0.02289653892321301</v>
+      </c>
+      <c r="H26">
+        <v>-0.09193639422247671</v>
+      </c>
+      <c r="I26">
+        <v>0.01166559891048817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2553297237572504</v>
+        <v>0.318831599030766</v>
       </c>
       <c r="C28">
-        <v>0.2017726317523559</v>
+        <v>0.09386304501032609</v>
       </c>
       <c r="D28">
-        <v>-0.0171850035718479</v>
+        <v>0.01317007889012542</v>
       </c>
       <c r="E28">
-        <v>0.06252221187363531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05112543669134299</v>
+      </c>
+      <c r="F28">
+        <v>-0.04840747438203358</v>
+      </c>
+      <c r="G28">
+        <v>0.03699820747809256</v>
+      </c>
+      <c r="H28">
+        <v>0.01589926265869493</v>
+      </c>
+      <c r="I28">
+        <v>0.02583078222523284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002456686817392597</v>
+        <v>-0.0001184390202456733</v>
       </c>
       <c r="C29">
-        <v>-0.02088742284726821</v>
+        <v>-0.03251633498587873</v>
       </c>
       <c r="D29">
-        <v>-0.09765210665534403</v>
+        <v>-0.1011616868123902</v>
       </c>
       <c r="E29">
-        <v>0.01528639222452504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05483607472933588</v>
+      </c>
+      <c r="F29">
+        <v>-0.03923820961548268</v>
+      </c>
+      <c r="G29">
+        <v>0.02536091399863111</v>
+      </c>
+      <c r="H29">
+        <v>-0.1292933611963359</v>
+      </c>
+      <c r="I29">
+        <v>-0.01775031693129768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02131565868860051</v>
+        <v>0.01383987023820175</v>
       </c>
       <c r="C30">
-        <v>-0.05824449334082806</v>
+        <v>-0.08519160023182558</v>
       </c>
       <c r="D30">
-        <v>-0.1656126447459761</v>
+        <v>-0.1538105073872769</v>
       </c>
       <c r="E30">
-        <v>0.02500645416814042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05113465287500613</v>
+      </c>
+      <c r="F30">
+        <v>-0.03488606985621865</v>
+      </c>
+      <c r="G30">
+        <v>0.03600808364115183</v>
+      </c>
+      <c r="H30">
+        <v>-0.05259245810327824</v>
+      </c>
+      <c r="I30">
+        <v>-0.05010495420902318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03812499765659478</v>
+        <v>0.009615601064177404</v>
       </c>
       <c r="C31">
-        <v>-0.08429420636026309</v>
+        <v>-0.09202438645491309</v>
       </c>
       <c r="D31">
-        <v>-0.06676834950215804</v>
+        <v>-0.0406243620659376</v>
       </c>
       <c r="E31">
-        <v>0.01377338794715615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01814366948439768</v>
+      </c>
+      <c r="F31">
+        <v>-0.01620597162233738</v>
+      </c>
+      <c r="G31">
+        <v>0.0130258016975998</v>
+      </c>
+      <c r="H31">
+        <v>-0.04262039632149939</v>
+      </c>
+      <c r="I31">
+        <v>-0.0008669660588145656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01782553913981389</v>
+        <v>0.0095534586393547</v>
       </c>
       <c r="C32">
-        <v>-0.03248927446628266</v>
+        <v>-0.04581907035127773</v>
       </c>
       <c r="D32">
-        <v>-0.1006643598939884</v>
+        <v>-0.1056938053529869</v>
       </c>
       <c r="E32">
-        <v>0.066061645159774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.001186291122831066</v>
+      </c>
+      <c r="F32">
+        <v>-0.05124126998148566</v>
+      </c>
+      <c r="G32">
+        <v>0.0265082904744238</v>
+      </c>
+      <c r="H32">
+        <v>-0.03820778507231555</v>
+      </c>
+      <c r="I32">
+        <v>0.06466363511415597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.008676642332257007</v>
+        <v>0.006632792970358784</v>
       </c>
       <c r="C33">
-        <v>-0.0401876323782832</v>
+        <v>-0.05688078897675903</v>
       </c>
       <c r="D33">
-        <v>-0.1362570200877682</v>
+        <v>-0.1216374331544999</v>
       </c>
       <c r="E33">
-        <v>0.04016959324750753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02431050092796831</v>
+      </c>
+      <c r="F33">
+        <v>-0.02941786532822296</v>
+      </c>
+      <c r="G33">
+        <v>0.01482507867305741</v>
+      </c>
+      <c r="H33">
+        <v>-0.06322568505505782</v>
+      </c>
+      <c r="I33">
+        <v>-0.01493213340704866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02160580463022239</v>
+        <v>0.007700038883958826</v>
       </c>
       <c r="C34">
-        <v>-0.05836460957713458</v>
+        <v>-0.06134473712572385</v>
       </c>
       <c r="D34">
-        <v>-0.05157983527467317</v>
+        <v>-0.03121628165949853</v>
       </c>
       <c r="E34">
-        <v>-0.04600116226501201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02949537039181463</v>
+      </c>
+      <c r="F34">
+        <v>0.03812135121060844</v>
+      </c>
+      <c r="G34">
+        <v>0.001076622497366289</v>
+      </c>
+      <c r="H34">
+        <v>-0.06012887748033131</v>
+      </c>
+      <c r="I34">
+        <v>-0.02257532204268618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001080396262945664</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.008735678639140732</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02923117526200476</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003276019144512294</v>
+      </c>
+      <c r="F35">
+        <v>-0.01777217157034293</v>
+      </c>
+      <c r="G35">
+        <v>0.01425183669433347</v>
+      </c>
+      <c r="H35">
+        <v>-0.03863545781549671</v>
+      </c>
+      <c r="I35">
+        <v>-0.03946297687999945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005853468630737474</v>
+        <v>0.01177834669395807</v>
       </c>
       <c r="C36">
-        <v>-0.005851483884226147</v>
+        <v>-0.01830357821557517</v>
       </c>
       <c r="D36">
-        <v>-0.08643333831680299</v>
+        <v>-0.07354453501745557</v>
       </c>
       <c r="E36">
-        <v>0.04333925739151018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02499210397153468</v>
+      </c>
+      <c r="F36">
+        <v>-0.04872336846039784</v>
+      </c>
+      <c r="G36">
+        <v>0.01648858437619048</v>
+      </c>
+      <c r="H36">
+        <v>-0.06165326995833095</v>
+      </c>
+      <c r="I36">
+        <v>0.001855605064836976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004387237815667171</v>
+        <v>0.01419513894914392</v>
       </c>
       <c r="C38">
-        <v>-0.006794244599238584</v>
+        <v>-0.01876892502843588</v>
       </c>
       <c r="D38">
-        <v>-0.08570876165747791</v>
+        <v>-0.08587192652755958</v>
       </c>
       <c r="E38">
-        <v>0.01096362193803914</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0002904864774206282</v>
+      </c>
+      <c r="F38">
+        <v>-0.001406349305974043</v>
+      </c>
+      <c r="G38">
+        <v>0.03414906056479115</v>
+      </c>
+      <c r="H38">
+        <v>-0.06170163770675015</v>
+      </c>
+      <c r="I38">
+        <v>-0.01969426278637848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01487251082718997</v>
+        <v>0.003098155960121971</v>
       </c>
       <c r="C39">
-        <v>-0.05641009953641611</v>
+        <v>-0.07412846951885922</v>
       </c>
       <c r="D39">
-        <v>-0.1156242174978037</v>
+        <v>-0.09894792908116824</v>
       </c>
       <c r="E39">
-        <v>-0.01558930260879938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05275705921736221</v>
+      </c>
+      <c r="F39">
+        <v>0.004055893383835676</v>
+      </c>
+      <c r="G39">
+        <v>0.006168658306308886</v>
+      </c>
+      <c r="H39">
+        <v>-0.1049198262657613</v>
+      </c>
+      <c r="I39">
+        <v>-0.03697243836504882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0100452575401657</v>
+        <v>0.01232921263437063</v>
       </c>
       <c r="C40">
-        <v>-0.01687525868151174</v>
+        <v>-0.0286328688622331</v>
       </c>
       <c r="D40">
-        <v>-0.1220836804204875</v>
+        <v>-0.1005079595842581</v>
       </c>
       <c r="E40">
-        <v>-0.01830597326044942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04785150307648248</v>
+      </c>
+      <c r="F40">
+        <v>0.02085010960291898</v>
+      </c>
+      <c r="G40">
+        <v>0.06789261151733898</v>
+      </c>
+      <c r="H40">
+        <v>-0.06766416096210537</v>
+      </c>
+      <c r="I40">
+        <v>0.08357813417202033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01018330167548788</v>
+        <v>0.01643526373528985</v>
       </c>
       <c r="C41">
-        <v>-0.003371023231952223</v>
+        <v>-0.01486613981608085</v>
       </c>
       <c r="D41">
-        <v>-0.04466302611796762</v>
+        <v>-0.04253570527742376</v>
       </c>
       <c r="E41">
-        <v>0.03264160881413234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.009699226701836887</v>
+      </c>
+      <c r="F41">
+        <v>-0.02456274476089074</v>
+      </c>
+      <c r="G41">
+        <v>0.02009544292016097</v>
+      </c>
+      <c r="H41">
+        <v>-0.03782817087700267</v>
+      </c>
+      <c r="I41">
+        <v>-0.02181071977326628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.003054192582787235</v>
+        <v>0.01017104881381132</v>
       </c>
       <c r="C43">
-        <v>-0.003788033939925079</v>
+        <v>-0.01186269609839853</v>
       </c>
       <c r="D43">
-        <v>-0.05408440252199356</v>
+        <v>-0.04841008021909531</v>
       </c>
       <c r="E43">
-        <v>0.02257907315732245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.006364446713059822</v>
+      </c>
+      <c r="F43">
+        <v>-0.02102249402442897</v>
+      </c>
+      <c r="G43">
+        <v>0.02244163671504755</v>
+      </c>
+      <c r="H43">
+        <v>-0.0532561449534432</v>
+      </c>
+      <c r="I43">
+        <v>-0.03577033838661069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01571185104838889</v>
+        <v>0.01131371948438254</v>
       </c>
       <c r="C44">
-        <v>-0.02217704095735152</v>
+        <v>-0.04408733829136095</v>
       </c>
       <c r="D44">
-        <v>-0.1113281516739704</v>
+        <v>-0.1115826063559263</v>
       </c>
       <c r="E44">
-        <v>0.04791349597329229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03778447690934741</v>
+      </c>
+      <c r="F44">
+        <v>-0.03644889537683801</v>
+      </c>
+      <c r="G44">
+        <v>0.03452764273921737</v>
+      </c>
+      <c r="H44">
+        <v>-0.04895316327928119</v>
+      </c>
+      <c r="I44">
+        <v>-0.03878898292273288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005257877448465463</v>
+        <v>-0.0003810572456011876</v>
       </c>
       <c r="C46">
-        <v>-0.02856586520110447</v>
+        <v>-0.03990915737460008</v>
       </c>
       <c r="D46">
-        <v>-0.0908494198157152</v>
+        <v>-0.07763109269422715</v>
       </c>
       <c r="E46">
-        <v>0.01772195498012496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04113724255901299</v>
+      </c>
+      <c r="F46">
+        <v>-0.03328145440958714</v>
+      </c>
+      <c r="G46">
+        <v>0.03501341408363516</v>
+      </c>
+      <c r="H46">
+        <v>-0.132594471375644</v>
+      </c>
+      <c r="I46">
+        <v>-0.03792408699662481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08062720522277557</v>
+        <v>0.03563590576251695</v>
       </c>
       <c r="C47">
-        <v>-0.1069088369449446</v>
+        <v>-0.1259437913835963</v>
       </c>
       <c r="D47">
-        <v>-0.05750549308581963</v>
+        <v>-0.02502823394447586</v>
       </c>
       <c r="E47">
-        <v>0.02912315582668829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008275661099291788</v>
+      </c>
+      <c r="F47">
+        <v>0.004923179643311066</v>
+      </c>
+      <c r="G47">
+        <v>-0.03061694083995537</v>
+      </c>
+      <c r="H47">
+        <v>-0.059127201653749</v>
+      </c>
+      <c r="I47">
+        <v>0.03133122638731713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007059083653042429</v>
+        <v>0.01268618581892569</v>
       </c>
       <c r="C48">
-        <v>-0.01519902872540503</v>
+        <v>-0.02812978010888941</v>
       </c>
       <c r="D48">
-        <v>-0.08909275559965581</v>
+        <v>-0.07733328462192374</v>
       </c>
       <c r="E48">
-        <v>0.05596977705464187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01768953962409651</v>
+      </c>
+      <c r="F48">
+        <v>-0.06013811639067708</v>
+      </c>
+      <c r="G48">
+        <v>0.03206888250176035</v>
+      </c>
+      <c r="H48">
+        <v>-0.09982444401894218</v>
+      </c>
+      <c r="I48">
+        <v>-0.01372822619569404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03602246837288935</v>
+        <v>0.01522064969141975</v>
       </c>
       <c r="C50">
-        <v>-0.05968470103436675</v>
+        <v>-0.07437654460892615</v>
       </c>
       <c r="D50">
-        <v>-0.06207021127875373</v>
+        <v>-0.04821538169450951</v>
       </c>
       <c r="E50">
-        <v>0.00955566393703273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01050092589980938</v>
+      </c>
+      <c r="F50">
+        <v>-0.01126386065149493</v>
+      </c>
+      <c r="G50">
+        <v>0.02493763828331848</v>
+      </c>
+      <c r="H50">
+        <v>-0.02939414503456556</v>
+      </c>
+      <c r="I50">
+        <v>-0.0002717049283399915</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.00251736189510115</v>
+        <v>-0.0007178791272601883</v>
       </c>
       <c r="C51">
-        <v>-0.003808950994971931</v>
+        <v>-0.01600979215977227</v>
       </c>
       <c r="D51">
-        <v>-0.06220283102421801</v>
+        <v>-0.06121763248930407</v>
       </c>
       <c r="E51">
-        <v>3.155649063799818e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03860860165901714</v>
+      </c>
+      <c r="F51">
+        <v>-0.03764594795214625</v>
+      </c>
+      <c r="G51">
+        <v>0.03065576792980626</v>
+      </c>
+      <c r="H51">
+        <v>-0.03683026373879554</v>
+      </c>
+      <c r="I51">
+        <v>0.02114559235209086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1081054819641173</v>
+        <v>0.05560549482521327</v>
       </c>
       <c r="C53">
-        <v>-0.12302508271838</v>
+        <v>-0.15574103691372</v>
       </c>
       <c r="D53">
-        <v>-0.01401211782829932</v>
+        <v>0.01687052006293995</v>
       </c>
       <c r="E53">
-        <v>0.06188852755896895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02830660314155213</v>
+      </c>
+      <c r="F53">
+        <v>-0.05015312421844054</v>
+      </c>
+      <c r="G53">
+        <v>0.003322805642009663</v>
+      </c>
+      <c r="H53">
+        <v>-0.001465442558604327</v>
+      </c>
+      <c r="I53">
+        <v>-0.003416169631775235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01084210463062125</v>
+        <v>0.00955594020760871</v>
       </c>
       <c r="C54">
-        <v>-0.01976570279802847</v>
+        <v>-0.03715773407478474</v>
       </c>
       <c r="D54">
-        <v>-0.09250100531414578</v>
+        <v>-0.08122316579977987</v>
       </c>
       <c r="E54">
-        <v>0.004271540553446465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0133511399336515</v>
+      </c>
+      <c r="F54">
+        <v>-0.003583950567851684</v>
+      </c>
+      <c r="G54">
+        <v>0.03796019635642624</v>
+      </c>
+      <c r="H54">
+        <v>-0.07677928668510792</v>
+      </c>
+      <c r="I54">
+        <v>-0.04597094141967315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09568800354951149</v>
+        <v>0.04279535504092485</v>
       </c>
       <c r="C55">
-        <v>-0.104739203689121</v>
+        <v>-0.1296402622586715</v>
       </c>
       <c r="D55">
-        <v>-0.007303358078567427</v>
+        <v>0.03034383321007064</v>
       </c>
       <c r="E55">
-        <v>0.01286335353427119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004805342649954431</v>
+      </c>
+      <c r="F55">
+        <v>-0.01507093409968342</v>
+      </c>
+      <c r="G55">
+        <v>0.01387979746449138</v>
+      </c>
+      <c r="H55">
+        <v>-0.005872170151291584</v>
+      </c>
+      <c r="I55">
+        <v>0.01997758225417573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1332805694141</v>
+        <v>0.05783535452678951</v>
       </c>
       <c r="C56">
-        <v>-0.1411961773979479</v>
+        <v>-0.1879532650717493</v>
       </c>
       <c r="D56">
-        <v>-2.535889038954597e-05</v>
+        <v>0.03070528871957894</v>
       </c>
       <c r="E56">
-        <v>0.01317143313908746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03097156449813232</v>
+      </c>
+      <c r="F56">
+        <v>-0.01835487410498078</v>
+      </c>
+      <c r="G56">
+        <v>0.05911489288520433</v>
+      </c>
+      <c r="H56">
+        <v>0.009937068341724205</v>
+      </c>
+      <c r="I56">
+        <v>0.02181764252058185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.009903732429261167</v>
+        <v>0.005959759524757016</v>
       </c>
       <c r="C58">
-        <v>-0.01141219710136102</v>
+        <v>-0.05024739027489889</v>
       </c>
       <c r="D58">
-        <v>-0.213751691487591</v>
+        <v>-0.2744241718649656</v>
       </c>
       <c r="E58">
-        <v>0.08277312485563683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.007944990161494248</v>
+      </c>
+      <c r="F58">
+        <v>-0.1109775685313834</v>
+      </c>
+      <c r="G58">
+        <v>0.1113479799061548</v>
+      </c>
+      <c r="H58">
+        <v>0.1188858326991984</v>
+      </c>
+      <c r="I58">
+        <v>-0.05920678360098184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1789717020978565</v>
+        <v>0.2527374312160873</v>
       </c>
       <c r="C59">
-        <v>0.1491733495190297</v>
+        <v>0.06562612053373311</v>
       </c>
       <c r="D59">
-        <v>-0.04306826613943902</v>
+        <v>-0.0560207591787486</v>
       </c>
       <c r="E59">
-        <v>0.03634863486532466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02310164229077147</v>
+      </c>
+      <c r="F59">
+        <v>-0.02471210774196849</v>
+      </c>
+      <c r="G59">
+        <v>0.009574601427740989</v>
+      </c>
+      <c r="H59">
+        <v>0.005882377635674358</v>
+      </c>
+      <c r="I59">
+        <v>0.07426755375965574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1876725890050636</v>
+        <v>0.1511856397515428</v>
       </c>
       <c r="C60">
-        <v>-0.1004635047886434</v>
+        <v>-0.170887667071962</v>
       </c>
       <c r="D60">
-        <v>-0.2043930639965183</v>
+        <v>-0.09240206758478584</v>
       </c>
       <c r="E60">
-        <v>-0.1685167643641692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1667541237912425</v>
+      </c>
+      <c r="F60">
+        <v>0.2285715540757699</v>
+      </c>
+      <c r="G60">
+        <v>-0.2627808270056856</v>
+      </c>
+      <c r="H60">
+        <v>0.1712208977876796</v>
+      </c>
+      <c r="I60">
+        <v>0.09811239794801366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02510491540698704</v>
+        <v>0.01072614339021408</v>
       </c>
       <c r="C61">
-        <v>-0.05320045533408858</v>
+        <v>-0.07190047333910726</v>
       </c>
       <c r="D61">
-        <v>-0.1003696088488128</v>
+        <v>-0.07859496843118817</v>
       </c>
       <c r="E61">
-        <v>-0.006840834682265394</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03587581517026102</v>
+      </c>
+      <c r="F61">
+        <v>0.01455336460804984</v>
+      </c>
+      <c r="G61">
+        <v>-0.009268307754417369</v>
+      </c>
+      <c r="H61">
+        <v>-0.09332127635820361</v>
+      </c>
+      <c r="I61">
+        <v>-0.02144322751898791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007135336549635757</v>
+        <v>0.008593022064203506</v>
       </c>
       <c r="C63">
-        <v>-0.0248952190717281</v>
+        <v>-0.03471051830532233</v>
       </c>
       <c r="D63">
-        <v>-0.09188006995442491</v>
+        <v>-0.06755915317584019</v>
       </c>
       <c r="E63">
-        <v>0.01499958178872887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0536703033223422</v>
+      </c>
+      <c r="F63">
+        <v>-0.02869418288777633</v>
+      </c>
+      <c r="G63">
+        <v>0.02177444306518254</v>
+      </c>
+      <c r="H63">
+        <v>-0.06629368912303561</v>
+      </c>
+      <c r="I63">
+        <v>-0.03396051249015233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05575468444308308</v>
+        <v>0.01968811774969338</v>
       </c>
       <c r="C64">
-        <v>-0.08286089949559759</v>
+        <v>-0.1049362676350415</v>
       </c>
       <c r="D64">
-        <v>-0.0409335876832599</v>
+        <v>-0.02404337787724438</v>
       </c>
       <c r="E64">
-        <v>0.01380294084694218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02927803042338261</v>
+      </c>
+      <c r="F64">
+        <v>-0.01714217764474991</v>
+      </c>
+      <c r="G64">
+        <v>-0.03920268011110944</v>
+      </c>
+      <c r="H64">
+        <v>-0.1111478677089719</v>
+      </c>
+      <c r="I64">
+        <v>-0.03615328828719074</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02467925417680238</v>
+        <v>0.02093001501199072</v>
       </c>
       <c r="C65">
-        <v>-0.01512263738061844</v>
+        <v>-0.04185451857635085</v>
       </c>
       <c r="D65">
-        <v>-0.1175694200927005</v>
+        <v>-0.1180375091474184</v>
       </c>
       <c r="E65">
-        <v>0.005906363267634889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04048647293884901</v>
+      </c>
+      <c r="F65">
+        <v>0.006866983167592358</v>
+      </c>
+      <c r="G65">
+        <v>-0.02275792204489459</v>
+      </c>
+      <c r="H65">
+        <v>-0.03413385594526459</v>
+      </c>
+      <c r="I65">
+        <v>-0.06620053879262494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01823644837131484</v>
+        <v>0.0006995635714160818</v>
       </c>
       <c r="C66">
-        <v>-0.06418754251228327</v>
+        <v>-0.09180188003888545</v>
       </c>
       <c r="D66">
-        <v>-0.1220345957259853</v>
+        <v>-0.1247282219942591</v>
       </c>
       <c r="E66">
-        <v>-0.01834837813234465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03967155349379689</v>
+      </c>
+      <c r="F66">
+        <v>0.009877303269458447</v>
+      </c>
+      <c r="G66">
+        <v>0.01917260181978563</v>
+      </c>
+      <c r="H66">
+        <v>-0.06305294818759022</v>
+      </c>
+      <c r="I66">
+        <v>-0.02765288630977615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02411054931984811</v>
+        <v>0.02479678834848208</v>
       </c>
       <c r="C67">
-        <v>-0.01986409629947766</v>
+        <v>-0.0309845875004923</v>
       </c>
       <c r="D67">
-        <v>-0.04182043289505809</v>
+        <v>-0.03820888762609357</v>
       </c>
       <c r="E67">
-        <v>-0.01541222697880807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.007490215895532427</v>
+      </c>
+      <c r="F67">
+        <v>0.02798414336767072</v>
+      </c>
+      <c r="G67">
+        <v>0.01898032751614514</v>
+      </c>
+      <c r="H67">
+        <v>-0.06595341842809201</v>
+      </c>
+      <c r="I67">
+        <v>-0.02178664004159537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2028365939108354</v>
+        <v>0.272939674917235</v>
       </c>
       <c r="C68">
-        <v>0.1586047474886154</v>
+        <v>0.07034914244066508</v>
       </c>
       <c r="D68">
-        <v>-0.03413529405315863</v>
+        <v>-0.02811242935358229</v>
       </c>
       <c r="E68">
-        <v>0.008563595971490989</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005911560163646045</v>
+      </c>
+      <c r="F68">
+        <v>-0.0262046395667888</v>
+      </c>
+      <c r="G68">
+        <v>0.05719016386420766</v>
+      </c>
+      <c r="H68">
+        <v>0.06897312176727102</v>
+      </c>
+      <c r="I68">
+        <v>0.03586553597237486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05709553022409075</v>
+        <v>0.02042715574563745</v>
       </c>
       <c r="C69">
-        <v>-0.114197556281098</v>
+        <v>-0.1165484281562145</v>
       </c>
       <c r="D69">
-        <v>-0.07907239807644943</v>
+        <v>-0.03207039485981746</v>
       </c>
       <c r="E69">
-        <v>0.01807847974498426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.006614253822900583</v>
+      </c>
+      <c r="F69">
+        <v>0.006060850440829738</v>
+      </c>
+      <c r="G69">
+        <v>-0.01237837805645749</v>
+      </c>
+      <c r="H69">
+        <v>-0.04384933229534952</v>
+      </c>
+      <c r="I69">
+        <v>0.01111361488895986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2126090525245843</v>
+        <v>0.2745508697928436</v>
       </c>
       <c r="C71">
-        <v>0.1819777929995792</v>
+        <v>0.08391612578666029</v>
       </c>
       <c r="D71">
-        <v>-0.02105269651497065</v>
+        <v>-0.01561434120156432</v>
       </c>
       <c r="E71">
-        <v>0.01440621347923761</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002090746405779027</v>
+      </c>
+      <c r="F71">
+        <v>-0.02120609894469857</v>
+      </c>
+      <c r="G71">
+        <v>0.03880187728061613</v>
+      </c>
+      <c r="H71">
+        <v>-0.01071340756670233</v>
+      </c>
+      <c r="I71">
+        <v>0.03380779100737312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1059750288729827</v>
+        <v>0.05611380856271842</v>
       </c>
       <c r="C72">
-        <v>-0.0738955505674232</v>
+        <v>-0.1244826739727184</v>
       </c>
       <c r="D72">
-        <v>-0.1072072902552225</v>
+        <v>-0.0576059080927284</v>
       </c>
       <c r="E72">
-        <v>-0.04910512303167869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06968675780510779</v>
+      </c>
+      <c r="F72">
+        <v>0.03088777961304132</v>
+      </c>
+      <c r="G72">
+        <v>-0.02278402807013833</v>
+      </c>
+      <c r="H72">
+        <v>-0.05791703717540082</v>
+      </c>
+      <c r="I72">
+        <v>-0.05719534388499314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1730546919221815</v>
+        <v>0.1413380897392219</v>
       </c>
       <c r="C73">
-        <v>-0.063984955985518</v>
+        <v>-0.1435205397901685</v>
       </c>
       <c r="D73">
-        <v>-0.2802532736243467</v>
+        <v>-0.1093876927389253</v>
       </c>
       <c r="E73">
-        <v>-0.2560762479245139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2989523689893906</v>
+      </c>
+      <c r="F73">
+        <v>0.3275931874670452</v>
+      </c>
+      <c r="G73">
+        <v>-0.4291101110164413</v>
+      </c>
+      <c r="H73">
+        <v>0.06640876631486863</v>
+      </c>
+      <c r="I73">
+        <v>0.04323672613890455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.108970869594594</v>
+        <v>0.05068319065733797</v>
       </c>
       <c r="C74">
-        <v>-0.114205053510634</v>
+        <v>-0.1463078984847828</v>
       </c>
       <c r="D74">
-        <v>0.01955835086197889</v>
+        <v>0.04091918239087297</v>
       </c>
       <c r="E74">
-        <v>0.04260244647874614</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01096985482368075</v>
+      </c>
+      <c r="F74">
+        <v>-0.0375700321022134</v>
+      </c>
+      <c r="G74">
+        <v>-0.002805956647401501</v>
+      </c>
+      <c r="H74">
+        <v>0.02051363590875449</v>
+      </c>
+      <c r="I74">
+        <v>0.03165639807592569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2352191392177328</v>
+        <v>0.1108367034939527</v>
       </c>
       <c r="C75">
-        <v>-0.198641439327945</v>
+        <v>-0.2700360037597825</v>
       </c>
       <c r="D75">
-        <v>0.1049908088630408</v>
+        <v>0.1349498904036593</v>
       </c>
       <c r="E75">
-        <v>-0.0242102227425426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08663413081918821</v>
+      </c>
+      <c r="F75">
+        <v>0.02974696574033654</v>
+      </c>
+      <c r="G75">
+        <v>0.09618953907422091</v>
+      </c>
+      <c r="H75">
+        <v>0.01278657780870175</v>
+      </c>
+      <c r="I75">
+        <v>0.01113695586686859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1404970175777769</v>
+        <v>0.06321820211766108</v>
       </c>
       <c r="C76">
-        <v>-0.137945512948778</v>
+        <v>-0.1822674238505115</v>
       </c>
       <c r="D76">
-        <v>-0.01402986998884305</v>
+        <v>0.0361314736938506</v>
       </c>
       <c r="E76">
-        <v>0.01217724738388452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02217883269371846</v>
+      </c>
+      <c r="F76">
+        <v>-0.004704634918456099</v>
+      </c>
+      <c r="G76">
+        <v>0.04473662866711409</v>
+      </c>
+      <c r="H76">
+        <v>-0.02038840454292717</v>
+      </c>
+      <c r="I76">
+        <v>0.005014424921701625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02041031566584423</v>
+        <v>0.0003425901698458757</v>
       </c>
       <c r="C77">
-        <v>-0.06720127662530205</v>
+        <v>-0.1035637604058487</v>
       </c>
       <c r="D77">
-        <v>-0.004450074540294256</v>
+        <v>-0.3014092022924441</v>
       </c>
       <c r="E77">
-        <v>0.2298510078724003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8421642373288841</v>
+      </c>
+      <c r="F77">
+        <v>0.2388096357811554</v>
+      </c>
+      <c r="G77">
+        <v>-0.2378997536194972</v>
+      </c>
+      <c r="H77">
+        <v>0.1005505899083385</v>
+      </c>
+      <c r="I77">
+        <v>-0.0003924514585074581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02513579722618814</v>
+        <v>0.01631202272979844</v>
       </c>
       <c r="C78">
-        <v>-0.06793031932822914</v>
+        <v>-0.08846733921881321</v>
       </c>
       <c r="D78">
-        <v>-0.1544748614895513</v>
+        <v>-0.1255318664225895</v>
       </c>
       <c r="E78">
-        <v>0.0454001614352211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06633399514612406</v>
+      </c>
+      <c r="F78">
+        <v>-0.04489089969455324</v>
+      </c>
+      <c r="G78">
+        <v>0.0335519223993519</v>
+      </c>
+      <c r="H78">
+        <v>-0.01675605750712343</v>
+      </c>
+      <c r="I78">
+        <v>0.1298465922721206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09607044029952157</v>
+        <v>0.03564589164238173</v>
       </c>
       <c r="C79">
-        <v>-0.1743748879293158</v>
+        <v>-0.1917911326989823</v>
       </c>
       <c r="D79">
-        <v>0.08826216060600768</v>
+        <v>0.06941980078254095</v>
       </c>
       <c r="E79">
-        <v>0.7958498916231214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05142892785163472</v>
+      </c>
+      <c r="F79">
+        <v>-0.7651499499272242</v>
+      </c>
+      <c r="G79">
+        <v>-0.4836697732395265</v>
+      </c>
+      <c r="H79">
+        <v>0.1967530621035702</v>
+      </c>
+      <c r="I79">
+        <v>-0.04268024276118045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004744491116357288</v>
+        <v>0.005476562417321503</v>
       </c>
       <c r="C80">
-        <v>-0.04634977396495375</v>
+        <v>-0.0455146469764286</v>
       </c>
       <c r="D80">
-        <v>-0.05196959236733054</v>
+        <v>-0.04284330074322193</v>
       </c>
       <c r="E80">
-        <v>-0.0075486579409143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0424564420251562</v>
+      </c>
+      <c r="F80">
+        <v>-0.006670844419452045</v>
+      </c>
+      <c r="G80">
+        <v>0.02433197474214413</v>
+      </c>
+      <c r="H80">
+        <v>-0.01901865373496445</v>
+      </c>
+      <c r="I80">
+        <v>0.06890410079942313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1201746521673807</v>
+        <v>0.04470897071070676</v>
       </c>
       <c r="C81">
-        <v>-0.1343938862274285</v>
+        <v>-0.1678052767400431</v>
       </c>
       <c r="D81">
-        <v>0.07342423306722608</v>
+        <v>0.08127655903482764</v>
       </c>
       <c r="E81">
-        <v>0.06243877596594852</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05052018820601098</v>
+      </c>
+      <c r="F81">
+        <v>-0.06275465802841232</v>
+      </c>
+      <c r="G81">
+        <v>0.06126971064836566</v>
+      </c>
+      <c r="H81">
+        <v>-0.05810079790815251</v>
+      </c>
+      <c r="I81">
+        <v>0.02442267950485778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2543353655765557</v>
+        <v>0.09402730890465177</v>
       </c>
       <c r="C82">
-        <v>-0.2974998584088989</v>
+        <v>-0.3271556505317098</v>
       </c>
       <c r="D82">
-        <v>0.2010035535001419</v>
+        <v>0.2334501891428451</v>
       </c>
       <c r="E82">
-        <v>-0.1372766110628806</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05228406608824786</v>
+      </c>
+      <c r="F82">
+        <v>0.1030757600798427</v>
+      </c>
+      <c r="G82">
+        <v>0.1184314896922041</v>
+      </c>
+      <c r="H82">
+        <v>-0.08915575741090039</v>
+      </c>
+      <c r="I82">
+        <v>0.02697177291421058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.007239474011461413</v>
+        <v>-0.01659833383857569</v>
       </c>
       <c r="C83">
-        <v>-0.05179377964965481</v>
+        <v>-0.02465019672038994</v>
       </c>
       <c r="D83">
-        <v>-0.01083580952988778</v>
+        <v>-0.02219565672144773</v>
       </c>
       <c r="E83">
-        <v>0.0578900616720827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07430999140034265</v>
+      </c>
+      <c r="F83">
+        <v>-0.06838448844807803</v>
+      </c>
+      <c r="G83">
+        <v>0.08796459177227252</v>
+      </c>
+      <c r="H83">
+        <v>-0.01707340994856004</v>
+      </c>
+      <c r="I83">
+        <v>0.8378574061679624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0005477153450036948</v>
+        <v>-0.001058779982648648</v>
       </c>
       <c r="C84">
-        <v>0.001741431736761663</v>
+        <v>-0.01882419749330176</v>
       </c>
       <c r="D84">
-        <v>-0.004794128146355045</v>
+        <v>-0.04772951880946521</v>
       </c>
       <c r="E84">
-        <v>0.0004116197271624767</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0009532733059096585</v>
+      </c>
+      <c r="F84">
+        <v>-0.02904697707635647</v>
+      </c>
+      <c r="G84">
+        <v>0.05158814327175553</v>
+      </c>
+      <c r="H84">
+        <v>-0.005225842441658422</v>
+      </c>
+      <c r="I84">
+        <v>-0.06505570957203061</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1415643697520735</v>
+        <v>0.05882695536197129</v>
       </c>
       <c r="C85">
-        <v>-0.138115837101914</v>
+        <v>-0.1838033095762283</v>
       </c>
       <c r="D85">
-        <v>0.0373892887812908</v>
+        <v>0.08852996077971667</v>
       </c>
       <c r="E85">
-        <v>0.02710763426720185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.002239290735626209</v>
+      </c>
+      <c r="F85">
+        <v>-0.073927842596987</v>
+      </c>
+      <c r="G85">
+        <v>0.01902801454775363</v>
+      </c>
+      <c r="H85">
+        <v>0.01261822116817245</v>
+      </c>
+      <c r="I85">
+        <v>0.006421434741224301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01276051497039089</v>
+        <v>0.01204677870977388</v>
       </c>
       <c r="C86">
-        <v>-0.01436510264991159</v>
+        <v>-0.03305661811153694</v>
       </c>
       <c r="D86">
-        <v>-0.07638509524282576</v>
+        <v>-0.1027327736570592</v>
       </c>
       <c r="E86">
-        <v>0.04996446341860537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02386438160993376</v>
+      </c>
+      <c r="F86">
+        <v>0.001921202540717516</v>
+      </c>
+      <c r="G86">
+        <v>-0.008077659667688834</v>
+      </c>
+      <c r="H86">
+        <v>-0.02404467474412221</v>
+      </c>
+      <c r="I86">
+        <v>0.02935472652401782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01878712990221814</v>
+        <v>0.01192358698034896</v>
       </c>
       <c r="C87">
-        <v>-0.02347226362496138</v>
+        <v>-0.05552161750187136</v>
       </c>
       <c r="D87">
-        <v>-0.131526748559807</v>
+        <v>-0.1451317571247779</v>
       </c>
       <c r="E87">
-        <v>0.05517802241768869</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.008071272468183439</v>
+      </c>
+      <c r="F87">
+        <v>-0.04635051466122408</v>
+      </c>
+      <c r="G87">
+        <v>0.06085685850687642</v>
+      </c>
+      <c r="H87">
+        <v>-0.02348271322844494</v>
+      </c>
+      <c r="I87">
+        <v>0.04708846986660456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0538440568833686</v>
+        <v>0.03491014731290832</v>
       </c>
       <c r="C88">
-        <v>-0.04483115666301501</v>
+        <v>-0.06578004101568929</v>
       </c>
       <c r="D88">
-        <v>-0.02281393818582303</v>
+        <v>-0.008265025319855953</v>
       </c>
       <c r="E88">
-        <v>0.0306087147164289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02390710784465547</v>
+      </c>
+      <c r="F88">
+        <v>-0.01873359603113804</v>
+      </c>
+      <c r="G88">
+        <v>-0.003772195907286489</v>
+      </c>
+      <c r="H88">
+        <v>-0.01570831238372332</v>
+      </c>
+      <c r="I88">
+        <v>-0.03559123415512287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.317095295678948</v>
+        <v>0.4071785284887393</v>
       </c>
       <c r="C89">
-        <v>0.3290975345784889</v>
+        <v>0.1582460433697902</v>
       </c>
       <c r="D89">
-        <v>-0.01998356083748455</v>
+        <v>-0.03097969968341376</v>
       </c>
       <c r="E89">
-        <v>0.09493730310233872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05508858365350514</v>
+      </c>
+      <c r="F89">
+        <v>-0.07002440235715367</v>
+      </c>
+      <c r="G89">
+        <v>0.04080886979348449</v>
+      </c>
+      <c r="H89">
+        <v>-0.1222560766917855</v>
+      </c>
+      <c r="I89">
+        <v>0.07545171757701943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2526813279858711</v>
+        <v>0.3173396457475867</v>
       </c>
       <c r="C90">
-        <v>0.2407259983300755</v>
+        <v>0.1078893502486678</v>
       </c>
       <c r="D90">
-        <v>-0.04109110329504483</v>
+        <v>-0.03216530346162928</v>
       </c>
       <c r="E90">
-        <v>-0.007044600928822384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01150749390904409</v>
+      </c>
+      <c r="F90">
+        <v>0.007540090775254447</v>
+      </c>
+      <c r="G90">
+        <v>0.06422858066276786</v>
+      </c>
+      <c r="H90">
+        <v>0.02742540594078408</v>
+      </c>
+      <c r="I90">
+        <v>0.03914999275799481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1566729689300547</v>
+        <v>0.06972215033116248</v>
       </c>
       <c r="C91">
-        <v>-0.1873519259430891</v>
+        <v>-0.2102686923854941</v>
       </c>
       <c r="D91">
-        <v>0.09849563423942082</v>
+        <v>0.109879310645761</v>
       </c>
       <c r="E91">
-        <v>0.09344510522624017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05968599695698229</v>
+      </c>
+      <c r="F91">
+        <v>-0.07213859274773846</v>
+      </c>
+      <c r="G91">
+        <v>0.00560467621140112</v>
+      </c>
+      <c r="H91">
+        <v>0.00390689202625911</v>
+      </c>
+      <c r="I91">
+        <v>0.0424573223914604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2403415880915808</v>
+        <v>0.3373113389268546</v>
       </c>
       <c r="C92">
-        <v>0.2628589444226145</v>
+        <v>0.1446687342244207</v>
       </c>
       <c r="D92">
-        <v>0.05772278054157069</v>
+        <v>0.006235252355946736</v>
       </c>
       <c r="E92">
-        <v>0.05164434811313008</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06828991186360922</v>
+      </c>
+      <c r="F92">
+        <v>-0.03085506141655652</v>
+      </c>
+      <c r="G92">
+        <v>0.03102534044335718</v>
+      </c>
+      <c r="H92">
+        <v>-0.02008556343084908</v>
+      </c>
+      <c r="I92">
+        <v>-0.2492355422798108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2791774124223879</v>
+        <v>0.334614436045983</v>
       </c>
       <c r="C93">
-        <v>0.2524216222815422</v>
+        <v>0.1170433303167894</v>
       </c>
       <c r="D93">
-        <v>-0.01366363990523878</v>
+        <v>0.01989289147697492</v>
       </c>
       <c r="E93">
-        <v>0.003415413127863843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02531108195006463</v>
+      </c>
+      <c r="F93">
+        <v>-0.007725375788380479</v>
+      </c>
+      <c r="G93">
+        <v>-0.01892282857538932</v>
+      </c>
+      <c r="H93">
+        <v>0.0001377221193420837</v>
+      </c>
+      <c r="I93">
+        <v>-0.007232490558666881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.298589189811294</v>
+        <v>0.1331465918790664</v>
       </c>
       <c r="C94">
-        <v>-0.2726985547345831</v>
+        <v>-0.3587826724532223</v>
       </c>
       <c r="D94">
-        <v>0.3461352950537534</v>
+        <v>0.348583450721148</v>
       </c>
       <c r="E94">
-        <v>-0.2114610145709492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05381681228345978</v>
+      </c>
+      <c r="F94">
+        <v>0.09339249176698049</v>
+      </c>
+      <c r="G94">
+        <v>0.2960943468507327</v>
+      </c>
+      <c r="H94">
+        <v>0.0948513855701467</v>
+      </c>
+      <c r="I94">
+        <v>-0.1244442550705511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01490255816079166</v>
+        <v>0.01909868305149879</v>
       </c>
       <c r="C95">
-        <v>-0.03723187385316443</v>
+        <v>-0.06119764215315547</v>
       </c>
       <c r="D95">
-        <v>-0.01996862088279487</v>
+        <v>-0.1049740817071354</v>
       </c>
       <c r="E95">
-        <v>0.08870079939167017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1562649606600322</v>
+      </c>
+      <c r="F95">
+        <v>0.02015106278362271</v>
+      </c>
+      <c r="G95">
+        <v>-0.02581418208527958</v>
+      </c>
+      <c r="H95">
+        <v>-0.406759689459628</v>
+      </c>
+      <c r="I95">
+        <v>-0.1862406712642519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001229685176025553</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0006926170844784962</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001262557334220162</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003375278613727706</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001148856534376098</v>
+      </c>
+      <c r="G97">
+        <v>0.0004944045134538786</v>
+      </c>
+      <c r="H97">
+        <v>-0.003495546181824292</v>
+      </c>
+      <c r="I97">
+        <v>-0.00435956599575793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1434351734636527</v>
+        <v>0.1144195489144251</v>
       </c>
       <c r="C98">
-        <v>-0.08504077444051017</v>
+        <v>-0.1459104389300157</v>
       </c>
       <c r="D98">
-        <v>-0.162170711611169</v>
+        <v>-0.06783393742008</v>
       </c>
       <c r="E98">
-        <v>-0.1970634734969906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2063806370279501</v>
+      </c>
+      <c r="F98">
+        <v>0.2474042267085589</v>
+      </c>
+      <c r="G98">
+        <v>-0.2994424396331304</v>
+      </c>
+      <c r="H98">
+        <v>0.1163504186324675</v>
+      </c>
+      <c r="I98">
+        <v>0.04086359240979873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001739383551895356</v>
+        <v>0.0003390881264891864</v>
       </c>
       <c r="C101">
-        <v>-0.02015176961708409</v>
+        <v>-0.03198877055306348</v>
       </c>
       <c r="D101">
-        <v>-0.09742155252732065</v>
+        <v>-0.1007361578122657</v>
       </c>
       <c r="E101">
-        <v>0.01646943807094118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05435666456638486</v>
+      </c>
+      <c r="F101">
+        <v>-0.03962331617934127</v>
+      </c>
+      <c r="G101">
+        <v>0.02586401054077471</v>
+      </c>
+      <c r="H101">
+        <v>-0.1302191103482072</v>
+      </c>
+      <c r="I101">
+        <v>-0.01715338555415911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1062394314943504</v>
+        <v>0.02965799655581023</v>
       </c>
       <c r="C102">
-        <v>-0.1571286981101603</v>
+        <v>-0.1510907237317209</v>
       </c>
       <c r="D102">
-        <v>0.06480036769925365</v>
+        <v>0.09530030885378281</v>
       </c>
       <c r="E102">
-        <v>-0.04998240619192234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03309848105251725</v>
+      </c>
+      <c r="F102">
+        <v>0.06050814967510489</v>
+      </c>
+      <c r="G102">
+        <v>0.007776469357159609</v>
+      </c>
+      <c r="H102">
+        <v>-0.05234113345450658</v>
+      </c>
+      <c r="I102">
+        <v>0.02844104994482902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
